--- a/Analyzed Data/NM9505 30C Old/NM9505 30C Old (215, 217).xlsx
+++ b/Analyzed Data/NM9505 30C Old/NM9505 30C Old (215, 217).xlsx
@@ -574,13 +574,13 @@
         <v>3.5625</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0189130185715931</v>
+        <v>0.02621867056820558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.935020271387319</v>
+        <v>0.9372963394055864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02295248069175267</v>
+        <v>0.03197733300429977</v>
       </c>
       <c r="E3" t="n">
         <v>1.003822917842769e-12</v>
@@ -603,11 +603,9 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>182.514702305474</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.983539788468448</v>
-      </c>
+        <v>112.4541184258475</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
         <v>0.5222860828260937</v>
       </c>
@@ -621,15 +619,11 @@
       <c r="A4" t="n">
         <v>3.5875</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.008527917112720555</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.9225765428723849</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01116039711167367</v>
-      </c>
+        <v>0.9146849503939857</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>4.820261131761563e-13</v>
       </c>
@@ -639,11 +633,9 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>297.7765766394808</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.095171582129738</v>
-      </c>
+        <v>302.7936205788868</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -3520,13 +3512,13 @@
         <v>3.5625</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0189130185715931</v>
+        <v>0.02621867056820558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.935020271387319</v>
+        <v>0.9372963394055864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02295248069175267</v>
+        <v>0.03197733300429977</v>
       </c>
       <c r="E3" t="n">
         <v>1.003822917842769e-12</v>
@@ -3549,11 +3541,9 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>182.514702305474</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.983539788468448</v>
-      </c>
+        <v>112.4541184258475</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
         <v>0.5222860828260937</v>
       </c>
@@ -3567,15 +3557,11 @@
       <c r="A4" t="n">
         <v>3.5875</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.008527917112720555</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.9225765428723849</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01116039711167367</v>
-      </c>
+        <v>0.9146849503939857</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>4.820261131761563e-13</v>
       </c>
@@ -3585,11 +3571,9 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>297.7765766394808</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.095171582129738</v>
-      </c>
+        <v>302.7936205788868</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
